--- a/swaption/output.xlsx
+++ b/swaption/output.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>AoCExpiry</t>
+          <t>AoCTime</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
